--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H2">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I2">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J2">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>52.42876267565937</v>
+        <v>102.5370645966355</v>
       </c>
       <c r="R2">
-        <v>52.42876267565937</v>
+        <v>922.8335813697199</v>
       </c>
       <c r="S2">
-        <v>0.02046315032840767</v>
+        <v>0.03515466030495176</v>
       </c>
       <c r="T2">
-        <v>0.02046315032840767</v>
+        <v>0.03515466030495177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H3">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I3">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J3">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>60.57218083420911</v>
+        <v>101.0622818667689</v>
       </c>
       <c r="R3">
-        <v>60.57218083420911</v>
+        <v>909.5605368009199</v>
       </c>
       <c r="S3">
-        <v>0.02364155816145867</v>
+        <v>0.03464903352407965</v>
       </c>
       <c r="T3">
-        <v>0.02364155816145867</v>
+        <v>0.03464903352407966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H4">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I4">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J4">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>8.805831356687664</v>
+        <v>15.08463284185444</v>
       </c>
       <c r="R4">
-        <v>8.805831356687664</v>
+        <v>135.76169557669</v>
       </c>
       <c r="S4">
-        <v>0.003436950284965685</v>
+        <v>0.005171741023272009</v>
       </c>
       <c r="T4">
-        <v>0.003436950284965685</v>
+        <v>0.00517174102327201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H5">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I5">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J5">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>177.2029491762207</v>
+        <v>212.29926542574</v>
       </c>
       <c r="R5">
-        <v>177.2029491762207</v>
+        <v>1910.69338883166</v>
       </c>
       <c r="S5">
-        <v>0.06916300142466759</v>
+        <v>0.07278644642688128</v>
       </c>
       <c r="T5">
-        <v>0.06916300142466759</v>
+        <v>0.0727864464268813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H6">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I6">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J6">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>204.7267288808321</v>
+        <v>209.24578138614</v>
       </c>
       <c r="R6">
-        <v>204.7267288808321</v>
+        <v>1883.21203247526</v>
       </c>
       <c r="S6">
-        <v>0.0799056398726835</v>
+        <v>0.07173956455464314</v>
       </c>
       <c r="T6">
-        <v>0.0799056398726835</v>
+        <v>0.07173956455464316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H7">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I7">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J7">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>29.76265711259932</v>
+        <v>31.23218403160499</v>
       </c>
       <c r="R7">
-        <v>29.76265711259932</v>
+        <v>281.089656284445</v>
       </c>
       <c r="S7">
-        <v>0.0116164810227483</v>
+        <v>0.01070790181610912</v>
       </c>
       <c r="T7">
-        <v>0.0116164810227483</v>
+        <v>0.01070790181610913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H8">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I8">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J8">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>873.1645309963926</v>
+        <v>1052.772471428749</v>
       </c>
       <c r="R8">
-        <v>873.1645309963926</v>
+        <v>9474.952242858739</v>
       </c>
       <c r="S8">
-        <v>0.3407995181909573</v>
+        <v>0.3609412728662858</v>
       </c>
       <c r="T8">
-        <v>0.3407995181909573</v>
+        <v>0.3609412728662858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H9">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I9">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J9">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>1008.787489354301</v>
+        <v>1037.630525777682</v>
       </c>
       <c r="R9">
-        <v>1008.787489354301</v>
+        <v>9338.674731999139</v>
       </c>
       <c r="S9">
-        <v>0.3937336872086383</v>
+        <v>0.3557498822426775</v>
       </c>
       <c r="T9">
-        <v>0.3937336872086383</v>
+        <v>0.3557498822426775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H10">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I10">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J10">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>146.6549888686423</v>
+        <v>154.8775192657061</v>
       </c>
       <c r="R10">
-        <v>146.6549888686423</v>
+        <v>1393.897673391355</v>
       </c>
       <c r="S10">
-        <v>0.05724001350547298</v>
+        <v>0.05309949724109979</v>
       </c>
       <c r="T10">
-        <v>0.05724001350547298</v>
+        <v>0.05309949724109979</v>
       </c>
     </row>
   </sheetData>
